--- a/cleaned_data/curated_voter_turnout_10_constituencies.xlsx
+++ b/cleaned_data/curated_voter_turnout_10_constituencies.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Voter Turnout Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Voter Turnout Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,11 @@
           <t>Turnout_TG</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Turnout_Postal</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>5.9375</v>
       </c>
+      <c r="R2" t="n">
+        <v>0.1296709588202725</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -591,10 +599,8 @@
           <t>BANGALORE SOUTH</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2215489</t>
-        </is>
+      <c r="D3" t="n">
+        <v>2215489</v>
       </c>
       <c r="E3" t="n">
         <v>1153492</v>
@@ -614,25 +620,17 @@
       <c r="J3" t="n">
         <v>33</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>1185137</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>1189657</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>53.7</t>
-        </is>
+      <c r="K3" t="n">
+        <v>1185137</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4520</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1189657</v>
+      </c>
+      <c r="N3" t="n">
+        <v>53.7</v>
       </c>
       <c r="O3" t="n">
         <v>53.43</v>
@@ -642,6 +640,9 @@
       </c>
       <c r="Q3" t="n">
         <v>9.59</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.3799414453073449</v>
       </c>
     </row>
     <row r="4">
@@ -700,6 +701,9 @@
       <c r="Q4" t="n">
         <v>12.75</v>
       </c>
+      <c r="R4" t="n">
+        <v>0.3891038132813675</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -757,6 +761,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0.03043267322365809</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -772,10 +779,8 @@
           <t>CHANDIGARH</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>646729</t>
-        </is>
+      <c r="D6" t="n">
+        <v>646729</v>
       </c>
       <c r="E6" t="n">
         <v>342199</v>
@@ -795,25 +800,17 @@
       <c r="J6" t="n">
         <v>15</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>456207</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>430</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>456637</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>70.61</t>
-        </is>
+      <c r="K6" t="n">
+        <v>456207</v>
+      </c>
+      <c r="L6" t="n">
+        <v>430</v>
+      </c>
+      <c r="M6" t="n">
+        <v>456637</v>
+      </c>
+      <c r="N6" t="n">
+        <v>70.61</v>
       </c>
       <c r="O6" t="n">
         <v>70.31999999999999</v>
@@ -823,6 +820,9 @@
       </c>
       <c r="Q6" t="n">
         <v>71.43000000000001</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.09416670134045205</v>
       </c>
     </row>
     <row r="7">
@@ -881,6 +881,9 @@
       <c r="Q7" t="n">
         <v>77.14</v>
       </c>
+      <c r="R7" t="n">
+        <v>0.1858103221528184</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -938,6 +941,9 @@
       <c r="Q8" t="n">
         <v>5.95238095238095</v>
       </c>
+      <c r="R8" t="n">
+        <v>0.1410646579059381</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -953,10 +959,8 @@
           <t>CHENNAI CENTRAL</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1332300</t>
-        </is>
+      <c r="D9" t="n">
+        <v>1332300</v>
       </c>
       <c r="E9" t="n">
         <v>660640</v>
@@ -976,25 +980,17 @@
       <c r="J9" t="n">
         <v>56</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>782686</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>3071</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>785757</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>58.98</t>
-        </is>
+      <c r="K9" t="n">
+        <v>782686</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3071</v>
+      </c>
+      <c r="M9" t="n">
+        <v>785757</v>
+      </c>
+      <c r="N9" t="n">
+        <v>58.98</v>
       </c>
       <c r="O9" t="n">
         <v>60.45</v>
@@ -1004,6 +1000,9 @@
       </c>
       <c r="Q9" t="n">
         <v>15.82</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.3908332983352359</v>
       </c>
     </row>
     <row r="10">
@@ -1062,6 +1061,9 @@
       <c r="Q10" t="n">
         <v>29.67</v>
       </c>
+      <c r="R10" t="n">
+        <v>0.5204247584425524</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1119,6 +1121,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0.05598032456239645</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1134,10 +1139,8 @@
           <t>HYDERABAD</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1957931</t>
-        </is>
+      <c r="D12" t="n">
+        <v>1957931</v>
       </c>
       <c r="E12" t="n">
         <v>1012592</v>
@@ -1157,25 +1160,17 @@
       <c r="J12" t="n">
         <v>5</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>877267</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>674</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>877941</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>44.84</t>
-        </is>
+      <c r="K12" t="n">
+        <v>877267</v>
+      </c>
+      <c r="L12" t="n">
+        <v>674</v>
+      </c>
+      <c r="M12" t="n">
+        <v>877941</v>
+      </c>
+      <c r="N12" t="n">
+        <v>44.84</v>
       </c>
       <c r="O12" t="n">
         <v>47.36</v>
@@ -1185,6 +1180,9 @@
       </c>
       <c r="Q12" t="n">
         <v>3.79</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.07677053469424483</v>
       </c>
     </row>
     <row r="13">
@@ -1243,6 +1241,9 @@
       <c r="Q13" t="n">
         <v>13.78</v>
       </c>
+      <c r="R13" t="n">
+        <v>0.6393512022612531</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1300,6 +1301,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0.4474379711012964</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1315,10 +1319,8 @@
           <t>JAIPUR</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2127021</t>
-        </is>
+      <c r="D15" t="n">
+        <v>2127021</v>
       </c>
       <c r="E15" t="n">
         <v>1119412</v>
@@ -1338,25 +1340,17 @@
       <c r="J15" t="n">
         <v>12</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>1447924</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>8582</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>1456506</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>68.48</t>
-        </is>
+      <c r="K15" t="n">
+        <v>1447924</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8582</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1456506</v>
+      </c>
+      <c r="N15" t="n">
+        <v>68.48</v>
       </c>
       <c r="O15" t="n">
         <v>70.06999999999999</v>
@@ -1366,6 +1360,9 @@
       </c>
       <c r="Q15" t="n">
         <v>48</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.5892183073739484</v>
       </c>
     </row>
     <row r="16">
@@ -1424,6 +1421,9 @@
       <c r="Q16" t="n">
         <v>45</v>
       </c>
+      <c r="R16" t="n">
+        <v>1.050034129692833</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1481,6 +1481,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0.1576424494658386</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1496,10 +1499,8 @@
           <t>KOLKATA DAKSHIN</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1728851</t>
-        </is>
+      <c r="D18" t="n">
+        <v>1728851</v>
       </c>
       <c r="E18" t="n">
         <v>896951</v>
@@ -1519,25 +1520,17 @@
       <c r="J18" t="n">
         <v>3</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>1204236</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>2840</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>1207076</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>69.82</t>
-        </is>
+      <c r="K18" t="n">
+        <v>1204236</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2840</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1207076</v>
+      </c>
+      <c r="N18" t="n">
+        <v>69.81999999999999</v>
       </c>
       <c r="O18" t="n">
         <v>71.16</v>
@@ -1547,6 +1540,9 @@
       </c>
       <c r="Q18" t="n">
         <v>9.09</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.2352793030430561</v>
       </c>
     </row>
     <row r="19">
@@ -1605,6 +1601,9 @@
       <c r="Q19" t="n">
         <v>35.71</v>
       </c>
+      <c r="R19" t="n">
+        <v>0.4913462002024844</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1662,6 +1661,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0.3516001770564938</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1677,10 +1679,8 @@
           <t>LUCKNOW</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2040367</t>
-        </is>
+      <c r="D21" t="n">
+        <v>2040367</v>
       </c>
       <c r="E21" t="n">
         <v>1096370</v>
@@ -1700,25 +1700,17 @@
       <c r="J21" t="n">
         <v>3</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>1107100</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>10530</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>1117630</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>54.78</t>
-        </is>
+      <c r="K21" t="n">
+        <v>1107100</v>
+      </c>
+      <c r="L21" t="n">
+        <v>10530</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1117630</v>
+      </c>
+      <c r="N21" t="n">
+        <v>54.78</v>
       </c>
       <c r="O21" t="n">
         <v>55.58</v>
@@ -1728,6 +1720,9 @@
       </c>
       <c r="Q21" t="n">
         <v>3.09</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.9421722752610434</v>
       </c>
     </row>
     <row r="22">
@@ -1786,6 +1781,9 @@
       <c r="Q22" t="n">
         <v>23.91</v>
       </c>
+      <c r="R22" t="n">
+        <v>0.3917658140256897</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1843,6 +1841,9 @@
       <c r="Q23" t="n">
         <v>14.2857142857143</v>
       </c>
+      <c r="R23" t="n">
+        <v>0.1135503006706334</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1858,10 +1859,8 @@
           <t>MUMBAI NORTH</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1647350</t>
-        </is>
+      <c r="D24" t="n">
+        <v>1647350</v>
       </c>
       <c r="E24" t="n">
         <v>890139</v>
@@ -1881,25 +1880,17 @@
       <c r="J24" t="n">
         <v>167</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>988056</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>1906</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>989962</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>60.09</t>
-        </is>
+      <c r="K24" t="n">
+        <v>988056</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1906</v>
+      </c>
+      <c r="M24" t="n">
+        <v>989962</v>
+      </c>
+      <c r="N24" t="n">
+        <v>60.09</v>
       </c>
       <c r="O24" t="n">
         <v>60.9</v>
@@ -1909,6 +1900,9 @@
       </c>
       <c r="Q24" t="n">
         <v>50.3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.1925326426670923</v>
       </c>
     </row>
     <row r="25">
@@ -1967,6 +1961,9 @@
       <c r="Q25" t="n">
         <v>14.77</v>
       </c>
+      <c r="R25" t="n">
+        <v>0.311434208558652</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2024,6 +2021,9 @@
       <c r="Q26" t="n">
         <v>9.210526315789471</v>
       </c>
+      <c r="R26" t="n">
+        <v>0.1700734614278543</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2039,10 +2039,8 @@
           <t>NEW DELHI</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1617470</t>
-        </is>
+      <c r="D27" t="n">
+        <v>1617470</v>
       </c>
       <c r="E27" t="n">
         <v>896288</v>
@@ -2062,25 +2060,17 @@
       <c r="J27" t="n">
         <v>6</v>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>919056</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>1511</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>920567</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>56.91</t>
-        </is>
+      <c r="K27" t="n">
+        <v>919056</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1511</v>
+      </c>
+      <c r="M27" t="n">
+        <v>920567</v>
+      </c>
+      <c r="N27" t="n">
+        <v>56.91</v>
       </c>
       <c r="O27" t="n">
         <v>56.5</v>
@@ -2090,6 +2080,9 @@
       </c>
       <c r="Q27" t="n">
         <v>25</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.1641379714893104</v>
       </c>
     </row>
     <row r="28">
@@ -2148,6 +2141,9 @@
       <c r="Q28" t="n">
         <v>28.21</v>
       </c>
+      <c r="R28" t="n">
+        <v>0.3391273986628354</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2205,6 +2201,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0.2878445979011473</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2220,10 +2219,8 @@
           <t>PATNA SAHIB</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2146008</t>
-        </is>
+      <c r="D30" t="n">
+        <v>2146008</v>
       </c>
       <c r="E30" t="n">
         <v>1133642</v>
@@ -2243,25 +2240,17 @@
       <c r="J30" t="n">
         <v>1</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>978602</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>982939</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>45.8</t>
-        </is>
+      <c r="K30" t="n">
+        <v>978602</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4337</v>
+      </c>
+      <c r="M30" t="n">
+        <v>982939</v>
+      </c>
+      <c r="N30" t="n">
+        <v>45.8</v>
       </c>
       <c r="O30" t="n">
         <v>48.4</v>
@@ -2271,6 +2260,9 @@
       </c>
       <c r="Q30" t="n">
         <v>0.9</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.4412277872787629</v>
       </c>
     </row>
     <row r="31">
@@ -2328,6 +2320,9 @@
       </c>
       <c r="Q31" t="n">
         <v>5.41</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.2072506115287102</v>
       </c>
     </row>
   </sheetData>
